--- a/uploads/leaveData.xlsx
+++ b/uploads/leaveData.xlsx
@@ -5,29 +5,50 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenon\Projects\TurnstileProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaasu Bisht\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16E1C340-AEA2-4F96-8B62-BAD881B2B0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6FA522-F4D8-43E2-9C0D-6334AEFDC03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9F9D0608-B15A-4AB6-ADF5-F91E48B5C0A5}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="14490" xr2:uid="{0E3BF31E-02EE-439A-96D7-BD83627F4E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>21MIM10035</t>
+  </si>
+  <si>
+    <t>22MIM10042</t>
+  </si>
+  <si>
+    <t>22MIM10010</t>
+  </si>
+  <si>
+    <t>21MIM10007</t>
   </si>
 </sst>
 </file>
@@ -378,18 +399,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9101B9-9D56-424D-A290-EB0C2C6309DE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B95DCA-9C42-41D9-9EEC-25B5AAF59048}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
